--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5ECA0-6864-4682-A729-8ADF6B9C1DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E96181-DB35-4F06-85B6-0B662DE91C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,8 +67,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lukas McAnulty</author>
+  </authors>
+  <commentList>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{49E1EA11-6157-4916-B365-5C9468287E24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lukas McAnulty:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If your subject holding company resembles a stable, income-oriented investment vehicle (e.g., real estate portfolios distributing steady cash flows, or family offices with conservative equity strategies), then including covered-call CEF discounts could be defensible.
+If your subject holding company has growth orientation (e.g., development real estate, private equity-style holdings), then covered-call funds may understate the appropriate discount, since they attract a different investor base (income seekers vs. growth investors).
+In valuation practice, many analysts:
+Use covered-call funds but in a separate peer group, and/or
+Blend discounts across subcategories (core equity funds, buy-write funds, sector funds) to show a range.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="301">
   <si>
     <t>Fund</t>
   </si>
@@ -416,13 +454,568 @@
   </si>
   <si>
     <t>XHYIX</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Geographic Focus</t>
+  </si>
+  <si>
+    <t>Value Equity</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Small-Cap</t>
+  </si>
+  <si>
+    <t>Sector Equity (Tech, Term Trust)</t>
+  </si>
+  <si>
+    <t>BSTZ</t>
+  </si>
+  <si>
+    <t>XBSZX</t>
+  </si>
+  <si>
+    <t>U.S./Global Tech</t>
+  </si>
+  <si>
+    <t>Sector Equity (Tech)</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>XSTKX</t>
+  </si>
+  <si>
+    <t>U.S. Tech</t>
+  </si>
+  <si>
+    <t>U.S./Global Healthcare</t>
+  </si>
+  <si>
+    <t>Sector Equity (Healthcare)</t>
+  </si>
+  <si>
+    <t>Multi-Manager Core Equity</t>
+  </si>
+  <si>
+    <t>Growth Equity</t>
+  </si>
+  <si>
+    <t>Equity + Hedging Overlay</t>
+  </si>
+  <si>
+    <t>ETJ</t>
+  </si>
+  <si>
+    <t>XETJX</t>
+  </si>
+  <si>
+    <t>Equity + Convertibles</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>XNIEX</t>
+  </si>
+  <si>
+    <t>U.S./Global</t>
+  </si>
+  <si>
+    <t>Dividend Equity</t>
+  </si>
+  <si>
+    <t>EVT</t>
+  </si>
+  <si>
+    <t>XEVTX</t>
+  </si>
+  <si>
+    <t>BDJ</t>
+  </si>
+  <si>
+    <t>XBDJX</t>
+  </si>
+  <si>
+    <t>Covered Call / Buy-Write</t>
+  </si>
+  <si>
+    <t>ETV</t>
+  </si>
+  <si>
+    <t>XETVX</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>XETBX</t>
+  </si>
+  <si>
+    <t>EOI</t>
+  </si>
+  <si>
+    <t>XEOIX</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>XEOSX</t>
+  </si>
+  <si>
+    <t>EXD</t>
+  </si>
+  <si>
+    <t>XEXDX</t>
+  </si>
+  <si>
+    <t>CII</t>
+  </si>
+  <si>
+    <t>XCIIX</t>
+  </si>
+  <si>
+    <t>BXMX</t>
+  </si>
+  <si>
+    <t>XBXMX</t>
+  </si>
+  <si>
+    <t>U.S. Large-Cap</t>
+  </si>
+  <si>
+    <t>DIAX</t>
+  </si>
+  <si>
+    <t>XDIAX</t>
+  </si>
+  <si>
+    <t>QQQX</t>
+  </si>
+  <si>
+    <t>XQQQX</t>
+  </si>
+  <si>
+    <t>U.S. Tech Growth</t>
+  </si>
+  <si>
+    <t>Core Value Equity</t>
+  </si>
+  <si>
+    <t>Core Equity</t>
+  </si>
+  <si>
+    <t>Balanced (Equity + Bonds mix)</t>
+  </si>
+  <si>
+    <t>Utilities &amp; infrastructure equity</t>
+  </si>
+  <si>
+    <t>Concentrated Activist Equity</t>
+  </si>
+  <si>
+    <t>Sector Equity (Healthcare/Biotech)</t>
+  </si>
+  <si>
+    <t>Sector Equity (Healthcare, Global)</t>
+  </si>
+  <si>
+    <t>Global Healthcare</t>
+  </si>
+  <si>
+    <t>Global REITs</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>U.S. REITs</t>
+  </si>
+  <si>
+    <t>REITs + preferreds</t>
+  </si>
+  <si>
+    <t>REITs + real estate equity</t>
+  </si>
+  <si>
+    <t>Real Estate Fund</t>
+  </si>
+  <si>
+    <t>QEDF</t>
+  </si>
+  <si>
+    <t>XDFSX</t>
+  </si>
+  <si>
+    <t>U.S. Real Estate</t>
+  </si>
+  <si>
+    <t>PGZ</t>
+  </si>
+  <si>
+    <t>XPGZX</t>
+  </si>
+  <si>
+    <t>International Dividend Equity</t>
+  </si>
+  <si>
+    <t>BGY</t>
+  </si>
+  <si>
+    <t>XBGYX</t>
+  </si>
+  <si>
+    <t>Non-U.S.</t>
+  </si>
+  <si>
+    <t>Global Equity</t>
+  </si>
+  <si>
+    <t>ETG</t>
+  </si>
+  <si>
+    <t>XETGX</t>
+  </si>
+  <si>
+    <t>Global Dividend Equity</t>
+  </si>
+  <si>
+    <t>EXG</t>
+  </si>
+  <si>
+    <t>XEXGX</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>XBOEX</t>
+  </si>
+  <si>
+    <t>Global Covered Call / Buy-Write</t>
+  </si>
+  <si>
+    <t>ETW</t>
+  </si>
+  <si>
+    <t>XETWX</t>
+  </si>
+  <si>
+    <t>Emerging Markets Equity</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Regional Equity (CEE)</t>
+  </si>
+  <si>
+    <t>Regional Equity (Europe)</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Country Equity (South Korea)</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Country Equity (China)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>National muni bonds</t>
+  </si>
+  <si>
+    <t>Muni bonds</t>
+  </si>
+  <si>
+    <t>Investment-grade muni</t>
+  </si>
+  <si>
+    <t>Mortgage-backed securities</t>
+  </si>
+  <si>
+    <t>Mortgage bonds</t>
+  </si>
+  <si>
+    <t>Gov’t/sovereign bonds</t>
+  </si>
+  <si>
+    <t>Inflation-linked bonds (TIPS)</t>
+  </si>
+  <si>
+    <t>Investment-grade corporates + gov’t mix</t>
+  </si>
+  <si>
+    <t>Multi-sector bonds</t>
+  </si>
+  <si>
+    <t>High-yield bonds</t>
+  </si>
+  <si>
+    <t>High yield / leveraged loans</t>
+  </si>
+  <si>
+    <t>Investment-grade</t>
+  </si>
+  <si>
+    <t>High yield</t>
+  </si>
+  <si>
+    <t>AWP</t>
+  </si>
+  <si>
+    <t>XAWPX</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Royce Value Trust</t>
+  </si>
+  <si>
+    <t>Royce Micro-Cap Trust</t>
+  </si>
+  <si>
+    <t>BlackRock Science &amp; Technology Term Trust</t>
+  </si>
+  <si>
+    <t>BlackRock Science &amp; Technology Trust</t>
+  </si>
+  <si>
+    <t>Columbia Seligman Premium Tech Growth</t>
+  </si>
+  <si>
+    <t>BlackRock Health Sciences Trust</t>
+  </si>
+  <si>
+    <t>Liberty All-Star Equity</t>
+  </si>
+  <si>
+    <t>Liberty All-Star Growth</t>
+  </si>
+  <si>
+    <t>Eaton Vance Risk-Managed Diversified Equity Income</t>
+  </si>
+  <si>
+    <t>Calamos Strategic Total Return</t>
+  </si>
+  <si>
+    <t>Virtus AllianzGI Equity &amp; Convertible Income</t>
+  </si>
+  <si>
+    <t>John Hancock Premium Dividend</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Advantaged Dividend Income</t>
+  </si>
+  <si>
+    <t>BlackRock Enhanced Equity Dividend</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Buy-Write Opportunities</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Buy-Write Income</t>
+  </si>
+  <si>
+    <t>Eaton Vance Enhanced Equity Income</t>
+  </si>
+  <si>
+    <t>Eaton Vance Enhanced Equity Income II</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Buy-Write Strategy</t>
+  </si>
+  <si>
+    <t>BlackRock Enhanced Capital &amp; Income</t>
+  </si>
+  <si>
+    <t>Nuveen S&amp;P 500 Buy-Write Income</t>
+  </si>
+  <si>
+    <t>Nuveen Dow 30 Dynamic Overwrite</t>
+  </si>
+  <si>
+    <t>Nuveen NASDAQ 100 Dynamic Overwrite</t>
+  </si>
+  <si>
+    <t>Central Securities</t>
+  </si>
+  <si>
+    <t>Adams Diversified Equity</t>
+  </si>
+  <si>
+    <t>General American Investors</t>
+  </si>
+  <si>
+    <t>Tri-Continental Corp.</t>
+  </si>
+  <si>
+    <t>Source Capital</t>
+  </si>
+  <si>
+    <t>Duff &amp; Phelps Utility &amp; Infrastructure Fund</t>
+  </si>
+  <si>
+    <t>Gabelli Dividend &amp; Income Trust</t>
+  </si>
+  <si>
+    <t>Gabelli Healthcare &amp; WellnessRx Trust</t>
+  </si>
+  <si>
+    <t>Stilwell Activist Investments Fund (STEW)</t>
+  </si>
+  <si>
+    <t>H&amp;Q Healthcare Investors</t>
+  </si>
+  <si>
+    <t>H&amp;Q Life Sciences Investors</t>
+  </si>
+  <si>
+    <t>Tekla World Healthcare Fund</t>
+  </si>
+  <si>
+    <t>CBRE Global Real Estate Income Fund</t>
+  </si>
+  <si>
+    <t>Cohen &amp; Steers Quality Income Realty Fund</t>
+  </si>
+  <si>
+    <t>Cohen &amp; Steers REIT &amp; Preferred Income Fund</t>
+  </si>
+  <si>
+    <t>Cohen &amp; Steers Total Return Realty Fund</t>
+  </si>
+  <si>
+    <t>Neuberger Berman Real Estate Securities Income</t>
+  </si>
+  <si>
+    <t>Nuveen Real Estate Income Fund</t>
+  </si>
+  <si>
+    <t>Test Closed End Mutual Fund – QEDF (SEI Institutional Real Estate Fund)</t>
+  </si>
+  <si>
+    <t>Principal Real Estate Income Fund</t>
+  </si>
+  <si>
+    <t>BlackRock Enhanced International Dividend</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Global Diversified Equity</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Global Div. Eq. Income</t>
+  </si>
+  <si>
+    <t>BlackRock Enhanced Global Dividend</t>
+  </si>
+  <si>
+    <t>Eaton Vance Tax-Managed Global Buy-Write Opps.</t>
+  </si>
+  <si>
+    <t>Aberdeen Emerging Markets Equity Income</t>
+  </si>
+  <si>
+    <t>Central &amp; Eastern Europe Fund</t>
+  </si>
+  <si>
+    <t>European Equity Fund</t>
+  </si>
+  <si>
+    <t>Korea Fund</t>
+  </si>
+  <si>
+    <t>Templeton Dragon Fund</t>
+  </si>
+  <si>
+    <t>BlackRock Investment Quality Municipal Trust</t>
+  </si>
+  <si>
+    <t>Invesco Quality Municipal Income Trust</t>
+  </si>
+  <si>
+    <t>Invesco Municipal Opportunity Trust</t>
+  </si>
+  <si>
+    <t>Invesco Municipal Trust</t>
+  </si>
+  <si>
+    <t>MFS Investment Grade Municipal Trust</t>
+  </si>
+  <si>
+    <t>Western Asset Managed Municipals Fund</t>
+  </si>
+  <si>
+    <t>BlackRock Income Trust</t>
+  </si>
+  <si>
+    <t>First Trust Mortgage Income Fund</t>
+  </si>
+  <si>
+    <t>MFS Government Markets Income Trust</t>
+  </si>
+  <si>
+    <t>Nuveen Mortgage &amp; Income Fund</t>
+  </si>
+  <si>
+    <t>Western Asset Inflation-Linked Opportunities &amp; Income</t>
+  </si>
+  <si>
+    <t>Western Asset/Claymore Inflation-Linked Securities &amp; Income</t>
+  </si>
+  <si>
+    <t>MFS Intermediate Income Trust</t>
+  </si>
+  <si>
+    <t>Nuveen Multi-Market Income Fund</t>
+  </si>
+  <si>
+    <t>BlackRock Corporate High Yield Fund</t>
+  </si>
+  <si>
+    <t>BlackRock Credit Allocation Income Trust</t>
+  </si>
+  <si>
+    <t>BlackRock Debt Strategies Fund</t>
+  </si>
+  <si>
+    <t>Invesco Bond Fund</t>
+  </si>
+  <si>
+    <t>Invesco High Income Trust II</t>
+  </si>
+  <si>
+    <t>Western Asset High Income Fund II</t>
+  </si>
+  <si>
+    <t>Western Asset High Income Opportunity Fund</t>
+  </si>
+  <si>
+    <t>Western Asset High Yield Defined Opportunity</t>
+  </si>
+  <si>
+    <t>Aberdeen Global Premier Properties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -436,6 +1029,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -443,12 +1037,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,13 +1088,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,637 +1436,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="D36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D37" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="D38" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="D40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D43" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="D44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="D45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="D46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="D47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="D49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="D54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="D55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="D56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="D57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="D58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="D59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="D61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="D62" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="D63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="D69" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="D70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="D71" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="D72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="D73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R100">
+    <sortCondition descending="1" ref="R2:R100"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E96181-DB35-4F06-85B6-0B662DE91C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A10FF-7D44-4897-8CDD-C9AA2D9903FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="298">
   <si>
     <t>Fund</t>
   </si>
@@ -570,12 +570,6 @@
     <t>XEOSX</t>
   </si>
   <si>
-    <t>EXD</t>
-  </si>
-  <si>
-    <t>XEXDX</t>
-  </si>
-  <si>
     <t>CII</t>
   </si>
   <si>
@@ -835,9 +829,6 @@
   </si>
   <si>
     <t>Eaton Vance Enhanced Equity Income II</t>
-  </si>
-  <si>
-    <t>Eaton Vance Tax-Managed Buy-Write Strategy</t>
   </si>
   <si>
     <t>BlackRock Enhanced Capital &amp; Income</t>
@@ -1088,15 +1079,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1437,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1459,7 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1484,14 +1472,14 @@
       <c r="C2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>249</v>
+      <c r="D2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1504,14 +1492,14 @@
       <c r="C3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>234</v>
+      <c r="E3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1524,14 +1512,14 @@
       <c r="C4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>250</v>
+      <c r="D4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1544,14 +1532,14 @@
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>236</v>
+      <c r="E5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1564,14 +1552,14 @@
       <c r="C6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>231</v>
+      <c r="E6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1584,14 +1572,14 @@
       <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>232</v>
+      <c r="E7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1604,14 +1592,14 @@
       <c r="C8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>226</v>
+      <c r="E8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1624,14 +1612,14 @@
       <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>225</v>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1644,14 +1632,14 @@
       <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>252</v>
+      <c r="D10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1664,14 +1652,14 @@
       <c r="C11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>248</v>
+      <c r="D11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1684,1319 +1672,1299 @@
       <c r="C12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>251</v>
+      <c r="D12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>247</v>
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>284</v>
+      <c r="D28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>285</v>
+      <c r="D29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>286</v>
+      <c r="E30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>290</v>
+      <c r="D31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>287</v>
+      <c r="D32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>291</v>
+      <c r="D33" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>288</v>
+      <c r="D34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>292</v>
+      <c r="D36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>293</v>
+      <c r="E37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>294</v>
+      <c r="D38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>295</v>
+      <c r="D39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>296</v>
+      <c r="D40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>297</v>
+      <c r="D41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>298</v>
+      <c r="D42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>299</v>
+        <v>111</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>278</v>
+      <c r="D44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>253</v>
+      <c r="D45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>279</v>
+      <c r="D46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>280</v>
+      <c r="D47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>281</v>
+      <c r="D48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>282</v>
+      <c r="D49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>283</v>
+        <v>106</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>230</v>
+      <c r="D51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>228</v>
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>254</v>
+      <c r="D53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>255</v>
+      <c r="D54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>256</v>
+      <c r="D55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>257</v>
+      <c r="F56" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>258</v>
+      <c r="F57" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>259</v>
+        <v>107</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>273</v>
+      <c r="E59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>274</v>
+      <c r="F60" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>275</v>
+      <c r="F61" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>276</v>
+      <c r="F62" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="A63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>277</v>
+      <c r="D63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="D65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="4" t="s">
+    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="D67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>272</v>
+      <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>260</v>
+      <c r="E69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>261</v>
+      <c r="D70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>262</v>
+      <c r="D71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>263</v>
+      <c r="E72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>264</v>
+      <c r="D73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>265</v>
+      <c r="D74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>174</v>
+      <c r="D75" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>300</v>
+        <v>119</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>267</v>
+      <c r="E76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R100">
-    <sortCondition descending="1" ref="R2:R100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R99">
+    <sortCondition descending="1" ref="R2:R99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A10FF-7D44-4897-8CDD-C9AA2D9903FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5BB3CE-DEAC-4028-88EA-90DD248EC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
@@ -639,15 +639,6 @@
     <t>REITs + real estate equity</t>
   </si>
   <si>
-    <t>Real Estate Fund</t>
-  </si>
-  <si>
-    <t>QEDF</t>
-  </si>
-  <si>
-    <t>XDFSX</t>
-  </si>
-  <si>
     <t>U.S. Real Estate</t>
   </si>
   <si>
@@ -897,9 +888,6 @@
     <t>Nuveen Real Estate Income Fund</t>
   </si>
   <si>
-    <t>Test Closed End Mutual Fund – QEDF (SEI Institutional Real Estate Fund)</t>
-  </si>
-  <si>
     <t>Principal Real Estate Income Fund</t>
   </si>
   <si>
@@ -1000,6 +988,18 @@
   </si>
   <si>
     <t>Aberdeen Global Premier Properties</t>
+  </si>
+  <si>
+    <t>XRLTX</t>
+  </si>
+  <si>
+    <t>RLTY</t>
+  </si>
+  <si>
+    <t>Equity-Real Estate (Real Estate + Income)</t>
+  </si>
+  <si>
+    <t>Cohen &amp; Steers Real Estate Opportunities &amp; Income Fund</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,6 +1089,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1427,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1462,7 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1479,7 +1482,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1499,7 +1502,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1519,7 +1522,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1539,7 +1542,7 @@
         <v>119</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1559,7 +1562,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1579,7 +1582,7 @@
         <v>119</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1599,7 +1602,7 @@
         <v>119</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1619,7 +1622,7 @@
         <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1639,7 +1642,7 @@
         <v>119</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1659,7 +1662,7 @@
         <v>119</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1679,7 +1682,7 @@
         <v>119</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1699,7 +1702,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1719,7 +1722,7 @@
         <v>128</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1739,7 +1742,7 @@
         <v>119</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1759,7 +1762,7 @@
         <v>139</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1779,7 +1782,7 @@
         <v>119</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1799,7 +1802,7 @@
         <v>119</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1819,7 +1822,7 @@
         <v>119</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1839,7 +1842,7 @@
         <v>119</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1859,7 +1862,7 @@
         <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1879,7 +1882,7 @@
         <v>119</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1899,7 +1902,7 @@
         <v>119</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1919,7 +1922,7 @@
         <v>158</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1939,7 +1942,7 @@
         <v>158</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1959,7 +1962,7 @@
         <v>163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1973,13 +1976,13 @@
         <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1993,13 +1996,13 @@
         <v>109</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2013,13 +2016,13 @@
         <v>109</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2033,13 +2036,13 @@
         <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2053,13 +2056,13 @@
         <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2073,13 +2076,13 @@
         <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2093,13 +2096,13 @@
         <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2113,13 +2116,13 @@
         <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2133,13 +2136,13 @@
         <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2153,13 +2156,13 @@
         <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2173,13 +2176,13 @@
         <v>110</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2193,13 +2196,13 @@
         <v>110</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2213,13 +2216,13 @@
         <v>110</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2233,13 +2236,13 @@
         <v>110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2253,13 +2256,13 @@
         <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2273,13 +2276,13 @@
         <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2293,13 +2296,13 @@
         <v>111</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2319,7 +2322,7 @@
         <v>119</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2333,13 +2336,13 @@
         <v>111</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2353,13 +2356,13 @@
         <v>111</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2373,13 +2376,13 @@
         <v>111</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2393,13 +2396,13 @@
         <v>111</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2413,13 +2416,13 @@
         <v>111</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2439,7 +2442,7 @@
         <v>129</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2459,7 +2462,7 @@
         <v>124</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2479,7 +2482,7 @@
         <v>119</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2499,7 +2502,7 @@
         <v>119</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2519,7 +2522,7 @@
         <v>119</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2539,7 +2542,7 @@
         <v>129</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2559,7 +2562,7 @@
         <v>129</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2579,7 +2582,7 @@
         <v>171</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2593,13 +2596,13 @@
         <v>107</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2613,13 +2616,13 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2633,13 +2636,13 @@
         <v>107</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2653,13 +2656,13 @@
         <v>107</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2673,113 +2676,113 @@
         <v>107</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2799,7 +2802,7 @@
         <v>173</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2819,7 +2822,7 @@
         <v>119</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2839,7 +2842,7 @@
         <v>119</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2859,7 +2862,7 @@
         <v>119</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2879,7 +2882,7 @@
         <v>119</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2899,15 +2902,15 @@
         <v>119</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>108</v>
@@ -2919,7 +2922,7 @@
         <v>173</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -2939,32 +2942,32 @@
         <v>119</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>182</v>
+      <c r="A76" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R99">
-    <sortCondition descending="1" ref="R2:R99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R98">
+    <sortCondition descending="1" ref="R2:R98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5BB3CE-DEAC-4028-88EA-90DD248EC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B54A6E-80E3-4682-B741-64175D443E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
@@ -101,12 +101,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{10417121-F753-45E1-830D-714E58E3FAF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lukas McAnulty:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to say non div fund</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="312">
   <si>
     <t>Fund</t>
   </si>
@@ -426,9 +450,6 @@
     <t>Closed End Stock Equity Funds</t>
   </si>
   <si>
-    <t>Closed End Non Div Funds</t>
-  </si>
-  <si>
     <t>Closed End International Funds</t>
   </si>
   <si>
@@ -1000,13 +1021,58 @@
   </si>
   <si>
     <t>Cohen &amp; Steers Real Estate Opportunities &amp; Income Fund</t>
+  </si>
+  <si>
+    <t>FXBY</t>
+  </si>
+  <si>
+    <t>XFXBX</t>
+  </si>
+  <si>
+    <t>Foxby Corp.</t>
+  </si>
+  <si>
+    <t>NBXG</t>
+  </si>
+  <si>
+    <t>XNBGX</t>
+  </si>
+  <si>
+    <t>Neuberger Brmn Nxt Gnrtn Cnnctvty</t>
+  </si>
+  <si>
+    <t>XJCEX</t>
+  </si>
+  <si>
+    <t>JCE</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>XSPEX</t>
+  </si>
+  <si>
+    <t>Nuveen Core Equity Alpha</t>
+  </si>
+  <si>
+    <t>Special Opportunities</t>
+  </si>
+  <si>
+    <t>Sector Equity (Technology)</t>
+  </si>
+  <si>
+    <t>Sector Equity (Large Cap U.S. Equities)</t>
+  </si>
+  <si>
+    <t>Fund of Funds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1046,13 +1112,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1079,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,6 +1174,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1453,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1476,13 +1564,13 @@
         <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1496,13 +1584,13 @@
         <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1516,13 +1604,13 @@
         <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1536,13 +1624,13 @@
         <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1556,13 +1644,13 @@
         <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1576,13 +1664,13 @@
         <v>105</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1596,13 +1684,13 @@
         <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1616,13 +1704,13 @@
         <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1636,13 +1724,13 @@
         <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1656,13 +1744,13 @@
         <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1676,1298 +1764,1379 @@
         <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>298</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>301</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>303</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>306</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="F78" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="C80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>297</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R98">
-    <sortCondition descending="1" ref="R2:R98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R102">
+    <sortCondition descending="1" ref="R2:R102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B54A6E-80E3-4682-B741-64175D443E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE346AB-E606-4C24-981E-34ADFB8DE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
@@ -101,36 +101,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{10417121-F753-45E1-830D-714E58E3FAF1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lukas McAnulty:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-used to say non div fund</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="321">
   <si>
     <t>Fund</t>
   </si>
@@ -399,18 +375,6 @@
     <t>EEA</t>
   </si>
   <si>
-    <t>KF</t>
-  </si>
-  <si>
-    <t>XKFDX</t>
-  </si>
-  <si>
-    <t>TDF</t>
-  </si>
-  <si>
-    <t>XTDFX</t>
-  </si>
-  <si>
     <t>IGR</t>
   </si>
   <si>
@@ -729,18 +693,6 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Country Equity (South Korea)</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Country Equity (China)</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>National muni bonds</t>
   </si>
   <si>
@@ -936,12 +888,6 @@
     <t>European Equity Fund</t>
   </si>
   <si>
-    <t>Korea Fund</t>
-  </si>
-  <si>
-    <t>Templeton Dragon Fund</t>
-  </si>
-  <si>
     <t>BlackRock Investment Quality Municipal Trust</t>
   </si>
   <si>
@@ -1066,13 +1012,70 @@
   </si>
   <si>
     <t>Fund of Funds</t>
+  </si>
+  <si>
+    <t>Hybrid-U.S. Allocation</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Equity-U.S. Equity</t>
+  </si>
+  <si>
+    <t>Equity-Sector Equity</t>
+  </si>
+  <si>
+    <t>Equity-Real Estate</t>
+  </si>
+  <si>
+    <t>Equity-Global Equity</t>
+  </si>
+  <si>
+    <t>Equity-Emerging Market Equity</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>Fixed Income-Taxable Preferreds</t>
+  </si>
+  <si>
+    <t>Equity-Covered Call Funds</t>
+  </si>
+  <si>
+    <t>Fixed Income (Government/Mortgage Bonds)-Taxable Investment Grade</t>
+  </si>
+  <si>
+    <t>Fixed Income (Government/Mortgage Bonds)-Taxable Global Income</t>
+  </si>
+  <si>
+    <t>Fixed Income (Government/Mortgage Bonds)-Taxable High Yield</t>
+  </si>
+  <si>
+    <t>Fixed Income (Corporate Bonds)-Taxable High Yield</t>
+  </si>
+  <si>
+    <t>Fixed Income (Corporate Bonds)-Taxable Investment Grade</t>
+  </si>
+  <si>
+    <t>Fixed Income (Corporate Bonds)-Taxable Senior Loans</t>
+  </si>
+  <si>
+    <t>Fixed Income (Municipal Bonds)-Municipal Municipal</t>
+  </si>
+  <si>
+    <t>Broad Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1112,32 +1115,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1164,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,9 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1516,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1528,12 +1509,14 @@
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,19 +1524,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1561,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1581,19 +1573,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1601,19 +1599,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1621,19 +1625,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1641,19 +1651,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1661,19 +1677,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1681,19 +1703,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1701,19 +1729,25 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1721,19 +1755,25 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1741,19 +1781,25 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1761,299 +1807,389 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="P16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="P17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="P21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="P23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="P25" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -2061,19 +2197,25 @@
         <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -2081,19 +2223,25 @@
         <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -2101,20 +2249,26 @@
         <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="P29" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -2122,19 +2276,25 @@
         <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -2142,19 +2302,25 @@
         <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -2162,19 +2328,25 @@
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
@@ -2182,19 +2354,25 @@
         <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2202,99 +2380,129 @@
         <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="P37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -2302,19 +2510,25 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2322,19 +2536,25 @@
         <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2342,19 +2562,25 @@
         <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -2362,19 +2588,25 @@
         <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>314</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2382,19 +2614,25 @@
         <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
@@ -2402,19 +2640,25 @@
         <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
@@ -2422,19 +2666,25 @@
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2442,19 +2692,25 @@
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2462,19 +2718,25 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -2482,19 +2744,25 @@
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2502,19 +2770,25 @@
         <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2522,19 +2796,25 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -2542,19 +2822,25 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2562,19 +2848,25 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2582,39 +2874,51 @@
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2622,19 +2926,25 @@
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2642,19 +2952,25 @@
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -2662,19 +2978,25 @@
         <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -2682,19 +3004,25 @@
         <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2702,19 +3030,25 @@
         <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2722,19 +3056,25 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -2742,19 +3082,25 @@
         <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -2762,19 +3108,25 @@
         <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -2782,179 +3134,233 @@
         <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G63" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>106</v>
+      <c r="C71" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -2962,19 +3368,25 @@
         <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -2982,19 +3394,25 @@
         <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
@@ -3002,19 +3420,25 @@
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
@@ -3022,121 +3446,105 @@
         <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>107</v>
+        <v>283</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>172</v>
+        <v>285</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>296</v>
+        <v>168</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:R102">
-    <sortCondition descending="1" ref="R2:R102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N4:S100">
+    <sortCondition descending="1" ref="S2:S100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE346AB-E606-4C24-981E-34ADFB8DE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3046A-CE39-42AC-9648-519734F92BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="324">
   <si>
     <t>Fund</t>
   </si>
@@ -1069,13 +1069,22 @@
   </si>
   <si>
     <t>Broad Category</t>
+  </si>
+  <si>
+    <t>RCG</t>
+  </si>
+  <si>
+    <t>XXRENNX</t>
+  </si>
+  <si>
+    <t>RENN Fund, Inc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1115,6 +1124,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1148,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,6 +1174,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,26 +1513,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578D1C-B700-4CAF-A167-35CF261C21BA}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1555,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1747,7 +1763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +1815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
@@ -1851,7 +1867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>129</v>
       </c>
@@ -1903,7 +1919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>132</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
@@ -1981,7 +1997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>141</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>143</v>
       </c>
@@ -2033,7 +2049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>145</v>
       </c>
@@ -2059,7 +2075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>147</v>
       </c>
@@ -2085,7 +2101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>149</v>
       </c>
@@ -2111,7 +2127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>154</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -2189,14 +2205,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2211,18 +2227,18 @@
       <c r="G27" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2237,18 +2253,18 @@
       <c r="G28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2264,18 +2280,18 @@
         <v>239</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="P29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2290,18 +2306,18 @@
       <c r="G30" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2316,18 +2332,18 @@
       <c r="G31" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2342,18 +2358,18 @@
       <c r="G32" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2368,18 +2384,18 @@
       <c r="G33" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2394,11 +2410,11 @@
       <c r="G34" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="P34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>287</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>290</v>
       </c>
@@ -2450,7 +2466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>294</v>
       </c>
@@ -2476,7 +2492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>295</v>
       </c>
@@ -2502,7 +2518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2580,7 +2596,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -2606,7 +2622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
@@ -2658,7 +2674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +2700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2710,7 +2726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2736,7 +2752,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -2762,7 +2778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2788,7 +2804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +2830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -2840,7 +2856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2866,7 +2882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2892,7 +2908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -2918,7 +2934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2944,7 +2960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2970,7 +2986,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -2996,7 +3012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -3022,7 +3038,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -3048,7 +3064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -3100,7 +3116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -3126,7 +3142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -3152,7 +3168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -3178,7 +3194,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>176</v>
       </c>
@@ -3204,7 +3220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>180</v>
       </c>
@@ -3230,7 +3246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>183</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>185</v>
       </c>
@@ -3282,7 +3298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>188</v>
       </c>
@@ -3308,7 +3324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>89</v>
       </c>
@@ -3334,7 +3350,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>91</v>
       </c>
@@ -3360,7 +3376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -3386,7 +3402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -3412,7 +3428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
@@ -3438,7 +3454,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>208</v>
       </c>
@@ -3490,7 +3506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>173</v>
       </c>
@@ -3516,7 +3532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>284</v>
       </c>
@@ -3540,6 +3556,29 @@
       </c>
       <c r="P78" s="3" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.mcanulty\Desktop\Development\CEMF's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3046A-CE39-42AC-9648-519734F92BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B7F455-A5FD-4C84-8E9D-2BBA5FE35A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72D6F78E-EF37-4C83-B99B-6BEF3D2DDF61}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="321">
   <si>
     <t>Fund</t>
   </si>
@@ -1069,15 +1069,6 @@
   </si>
   <si>
     <t>Broad Category</t>
-  </si>
-  <si>
-    <t>RCG</t>
-  </si>
-  <si>
-    <t>XXRENNX</t>
-  </si>
-  <si>
-    <t>RENN Fund, Inc.</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,9 +1166,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,7 +1504,7 @@
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3559,27 +3547,13 @@
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N4:S100">
